--- a/2020/Requisition/March/23.03.2020 Requisition of Mughdo Corporation.xlsx
+++ b/2020/Requisition/March/23.03.2020 Requisition of Mughdo Corporation.xlsx
@@ -1090,7 +1090,7 @@
       <pane xSplit="4" ySplit="14" topLeftCell="E60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="H108" sqref="H108"/>
+      <selection pane="bottomRight" activeCell="E112" sqref="E112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -4400,19 +4400,17 @@
       <c r="AF96" s="26"/>
       <c r="AG96" s="26"/>
     </row>
-    <row r="97" spans="1:55" ht="15">
+    <row r="97" spans="1:55" ht="15" hidden="1">
       <c r="A97" s="8" t="s">
         <v>105</v>
       </c>
       <c r="B97" s="9">
         <v>8101.24</v>
       </c>
-      <c r="C97" s="8">
-        <v>11</v>
-      </c>
+      <c r="C97" s="8"/>
       <c r="D97" s="10">
         <f>C97*B97</f>
-        <v>89113.64</v>
+        <v>0</v>
       </c>
       <c r="E97" s="37" t="s">
         <v>90</v>
@@ -4442,11 +4440,11 @@
         <v>10133.07</v>
       </c>
       <c r="C99" s="8">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D99" s="10">
         <f t="shared" si="3"/>
-        <v>60798.42</v>
+        <v>162129.12</v>
       </c>
       <c r="E99" s="37" t="s">
         <v>131</v>
@@ -4459,11 +4457,11 @@
       <c r="B100" s="45"/>
       <c r="C100" s="16">
         <f>SUBTOTAL(9,C10:C99)</f>
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D100" s="17">
         <f>SUBTOTAL(9,D10:D99)</f>
-        <v>286427.65999999997</v>
+        <v>298644.71999999997</v>
       </c>
       <c r="E100" s="31"/>
       <c r="F100" s="33"/>
@@ -4693,7 +4691,7 @@
         <v>21</v>
       </c>
       <c r="C105" s="21">
-        <v>300000</v>
+        <v>400000</v>
       </c>
       <c r="D105" s="8" t="s">
         <v>132</v>
@@ -4847,7 +4845,7 @@
       </c>
       <c r="C109" s="22">
         <f>SUBTOTAL(9,C104:C108)</f>
-        <v>300000</v>
+        <v>400000</v>
       </c>
       <c r="D109" s="15"/>
       <c r="E109" s="23"/>
